--- a/results/pseudomonas_putida/Zinc_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Zinc_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-no_metals_control_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-EX_zn2_e1-no_metals_zinc_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-no_metals_control" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cdm-EX_zn2_e1-no_metals_zinc" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,83 +458,83 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.940771194437239e-36</v>
+        <v>8.533353317702973e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5038759689922481</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5038759689922481</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S_Transport__solvent_extrusion</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5.122499672602734e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="E3" t="n">
         <v>26</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Unassigned</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1.145904556578519e-23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.982971836801462e-21</v>
+        <v>5.07938356481965e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8275862068965517</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.955316835800597e-20</v>
+        <v>2.820765231890751e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7222222222222222</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7222222222222222</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -542,1276 +542,1276 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8.197051045882047e-19</v>
+        <v>9.564882700522192e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7857142857142857</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.375085056120621e-16</v>
+        <v>2.427737807909724e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.85</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.820807202390827e-13</v>
+        <v>6.037500959134739e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2802547770700637</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2802547770700637</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.22450674581087e-12</v>
+        <v>2.30372095421102e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6538461538461539</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6538461538461539</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.885956409786663e-11</v>
+        <v>0.0001037616147834067</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7222222222222222</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.869987020785374e-10</v>
+        <v>0.0002006324750423651</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8.390316906090259e-10</v>
+        <v>0.0003613274156951727</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4857142857142857</v>
+        <v>0.525</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4857142857142857</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3.706845264639883e-09</v>
+        <v>0.0004778202916086266</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5909090909090909</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.543847973551042e-09</v>
+        <v>0.000846117971279241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7692307692307693</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.850105492514406e-09</v>
+        <v>0.001230422132652071</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5652173913043478</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.192707250693794e-08</v>
+        <v>0.001272445350034012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.837922960444649e-08</v>
+        <v>0.003494952742827158</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.000510977063196e-07</v>
+        <v>0.004836616070415369</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5217391304347826</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4.313966437626737e-07</v>
+        <v>0.004836616070415369</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7272727272727273</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.09351160841505e-06</v>
+        <v>0.004836616070415369</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.183515489674477e-06</v>
+        <v>0.00596246465868094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5714285714285714</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.074981594040873e-05</v>
+        <v>0.007960890625810594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3061224489795918</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.694138590363573e-05</v>
+        <v>0.01756593556708986</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3793103448275862</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.949653760827196e-05</v>
+        <v>0.01836657842843447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5.851224079088363e-05</v>
+        <v>0.02190214730732861</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5.851224079088363e-05</v>
+        <v>0.04394732399713096</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.851224079088363e-05</v>
+        <v>0.04535496753846053</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5.851224079088363e-05</v>
+        <v>0.04535496753846053</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.05895646550249176</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E29" t="n">
         <v>4</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>9.20499892022081e-05</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.20499892022081e-05</v>
+        <v>0.06967865357090897</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7142857142857143</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0003563361087043404</v>
+        <v>0.07310822657446485</v>
       </c>
       <c r="D31" t="n">
-        <v>0.303030303030303</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E31" t="n">
-        <v>0.303030303030303</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.0005977690713148543</v>
+        <v>0.10047257484093</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2407407407407407</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0006709001464703172</v>
+        <v>0.1375833926400542</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0006709001464703172</v>
+        <v>0.172302803855858</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0007598648884094577</v>
+        <v>0.172302803855858</v>
       </c>
       <c r="D35" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6666666666666666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.0008829298632443733</v>
+        <v>0.2576635754315496</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.002701096857165386</v>
+        <v>0.2671151394417686</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3043478260869565</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.003530491223940049</v>
+        <v>0.2856491422092242</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2916666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2916666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.00515055643735604</v>
+        <v>0.3586202445561254</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4444444444444444</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.00515055643735604</v>
+        <v>0.4585072022541679</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4444444444444444</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.005861878922490409</v>
+        <v>0.4834791060654365</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.2672811059907834</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01311283376113778</v>
+        <v>0.4992979086356545</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01794909910848553</v>
+        <v>0.527997820125692</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4285714285714285</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.03773703838813312</v>
+        <v>0.5807867915859364</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.26</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3333333333333333</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.06422010117651514</v>
+        <v>0.5888537690237506</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.06422010117651514</v>
+        <v>0.6018438180271301</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.06502491218050976</v>
+        <v>0.6673749332079857</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2727272727272727</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.08770668583752696</v>
+        <v>0.6673749332079857</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.08770668583752696</v>
+        <v>0.7069294878680226</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.09084820528648703</v>
+        <v>0.7193323514820571</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3333333333333333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1047852035757162</v>
+        <v>0.8005652925441062</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1724137931034483</v>
+        <v>0.2</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1724137931034483</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1200078477576876</v>
+        <v>0.8005652925441062</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2857142857142857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.1370724103445883</v>
+        <v>0.8414603220359542</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1739130434782609</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2166640662175276</v>
+        <v>0.8953470941245922</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2503616560035316</v>
+        <v>0.9036123201281688</v>
       </c>
       <c r="D55" t="n">
         <v>0.1818181818181818</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1818181818181818</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2536745022912118</v>
+        <v>0.9142784757649196</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="E56" t="n">
-        <v>0.15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2841848607919793</v>
+        <v>0.9142784757649196</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1666666666666667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.2841848607919793</v>
+        <v>0.918201111838685</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.3073833549709032</v>
+        <v>0.9362989301916973</v>
       </c>
       <c r="D59" t="n">
-        <v>0.25</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E59" t="n">
-        <v>0.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.3073833549709032</v>
+        <v>0.9536737105512071</v>
       </c>
       <c r="D60" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.317852994560307</v>
+        <v>0.9604361727967153</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2043795620437956</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1538461538461539</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.3511334585604204</v>
+        <v>0.9612669257067126</v>
       </c>
       <c r="D62" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1428571428571428</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.3511334585604204</v>
+        <v>0.9659500978477161</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1428571428571428</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.3511334585604204</v>
+        <v>0.9674495471864356</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1428571428571428</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.3681741684195001</v>
+        <v>0.9960678662826885</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.4846610185767204</v>
+        <v>0.9988588030145974</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09615384615384616</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09615384615384616</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6360295331909038</v>
+        <v>0.999815915265249</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09090909090909091</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.6576421845223465</v>
+        <v>0.9999997874161561</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.7182541919500002</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.07142857142857142</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.7238157797975122</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.07142857142857142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.7702531150257566</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0625</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.8900613089643983</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04166666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1859,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1878,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2011,35 +2011,35 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2087,16 +2087,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2125,7 +2125,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Urea_cycleamino_group_metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Glutamate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,40 +2228,40 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.049723084963991e-60</v>
+        <v>6.779324403041417e-18</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5796178343949044</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5796178343949044</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.249770158815826e-32</v>
+        <v>1.231585793241232e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4651162790697674</v>
+        <v>0.489051094890511</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4651162790697674</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -2213,535 +2270,535 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.014646902019589e-29</v>
+        <v>1.138385645187223e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7346938775510204</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7346938775510204</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.570545463977046e-17</v>
+        <v>1.074112203646232e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.525</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6388888888888888</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9.767827778087343e-12</v>
+        <v>1.074112203646232e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.44</v>
+        <v>0.525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.068795397112513e-09</v>
+        <v>2.827555945472601e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6666666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.249593261850754e-09</v>
+        <v>6.905719648533999e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5172413793103449</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.5454558073639e-09</v>
+        <v>0.0001777847557186491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4571428571428571</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.89557958131984e-09</v>
+        <v>0.001166565680518156</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5652173913043478</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.752843951596277e-08</v>
+        <v>0.001984927814041523</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8888888888888888</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.287126376707431e-08</v>
+        <v>0.009421962545872421</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5217391304347826</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.856370447050376e-06</v>
+        <v>0.009421962545872421</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6153846153846154</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6153846153846154</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.82735078636116e-06</v>
+        <v>0.01317622558189333</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.82735078636116e-06</v>
+        <v>0.02062837744710942</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.307277843227577e-06</v>
+        <v>0.03838108686849758</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6363636363636364</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6.415145580928742e-06</v>
+        <v>0.04466651612103215</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3636363636363636</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3636363636363636</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2.120789872143606e-05</v>
+        <v>0.06192863658221925</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2645161290322581</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.829769679827375e-05</v>
+        <v>0.07897969482351258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5384615384615384</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.656470540955811e-05</v>
+        <v>0.101838431156142</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4.847826547945352e-05</v>
+        <v>0.1022469311817887</v>
       </c>
       <c r="D21" t="n">
-        <v>0.391304347826087</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="E21" t="n">
-        <v>0.391304347826087</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0002814035675597674</v>
+        <v>0.1132745913130778</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3214285714285715</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0003439638408076317</v>
+        <v>0.1406118011665893</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2407407407407407</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0005653849929750058</v>
+        <v>0.198578179801338</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0006097537052794836</v>
+        <v>0.198578179801338</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6666666666666666</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.001329729993370444</v>
+        <v>0.2619014764579588</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5714285714285714</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.002121845855671348</v>
+        <v>0.2636771143363943</v>
       </c>
       <c r="D27" t="n">
-        <v>0.75</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="E27" t="n">
-        <v>0.75</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.004184036427849125</v>
+        <v>0.2883750660594911</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4444444444444444</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.004194595011418166</v>
+        <v>0.2883750660594911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2692307692307692</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.004440299728384101</v>
+        <v>0.3560692766715254</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.004440299728384101</v>
+        <v>0.3728566694667126</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2749,687 +2806,687 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.006521451316028495</v>
+        <v>0.3728566694667126</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.008012842094528782</v>
+        <v>0.3784661058889651</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.25</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2413793103448276</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.009725087618594993</v>
+        <v>0.3951078860410095</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01345265226457615</v>
+        <v>0.3951078860410095</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3333333333333333</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01535983560737006</v>
+        <v>0.4547569923788626</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E36" t="n">
-        <v>0.4285714285714285</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.02382836563029678</v>
+        <v>0.4653727138953176</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2857142857142857</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.02532532689277355</v>
+        <v>0.5301174436155505</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.25</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1730769230769231</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.03253412311744823</v>
+        <v>0.5480319742498857</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3333333333333333</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.03253412311744823</v>
+        <v>0.5957208318225187</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3333333333333333</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.03672342895578787</v>
+        <v>0.613621147132835</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.03687154948614847</v>
+        <v>0.658293491333841</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2173913043478261</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.05646861809353722</v>
+        <v>0.658293491333841</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2727272727272727</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.05788681929076321</v>
+        <v>0.7110820023881432</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05788681929076321</v>
+        <v>0.7110820023881432</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.08215676233545972</v>
+        <v>0.7305680843618261</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3333333333333333</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.08285406182602445</v>
+        <v>0.7599615937812596</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.08285406182602445</v>
+        <v>0.7605707768410169</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.1037122271118899</v>
+        <v>0.7962344668455332</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2142857142857143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.1037122271118899</v>
+        <v>0.8108290273483258</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2142857142857143</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.1088755330266955</v>
+        <v>0.8108290273483258</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2857142857142857</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.1322568038285386</v>
+        <v>0.8108290273483258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1666666666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.1414319675924907</v>
+        <v>0.8298559702662496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1875</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.1617697701279459</v>
+        <v>0.8298559702662496</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1764705882352941</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.2157977314776551</v>
+        <v>0.8540430221973266</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1379310344827586</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1379310344827586</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.2271191872247396</v>
+        <v>0.8583946062470124</v>
       </c>
       <c r="D56" t="n">
-        <v>0.15</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>0.15</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.2299382319266679</v>
+        <v>0.9027496339325705</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1818181818181818</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.2617644236380299</v>
+        <v>0.9547669279587493</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1666666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4049892134265227</v>
+        <v>0.9643754631658646</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.4543414934931604</v>
+        <v>0.9643754631658646</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1428571428571428</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5792086717946391</v>
+        <v>0.9915147918716702</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.6030660512179942</v>
+        <v>0.992948362645788</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E62" t="n">
-        <v>0.08333333333333333</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6141357157814362</v>
+        <v>0.9953777531398144</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.0625</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09090909090909091</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>S_Iron_uptake_and_metabolism</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9956114513724466</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="E64" t="n">
         <v>76</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.6755491300068492</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.7024941581219354</v>
+        <v>0.9958640609350173</v>
       </c>
       <c r="D65" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07142857142857142</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.8514021340588893</v>
+        <v>0.9998599633537646</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.1357615894039735</v>
       </c>
       <c r="E66" t="n">
-        <v>0.04545454545454546</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.9999999999989988</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3439,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3458,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3477,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3496,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3515,16 +3572,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3534,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3553,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3572,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3591,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3610,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3629,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3648,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3667,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3686,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3705,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3724,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3743,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3762,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3781,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3800,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3819,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3838,7 +3895,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Intracellular source/sink</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Murein Recycling</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
